--- a/results/voters=50_projects=25_true-rankings=2_runs=100_costs-dist=betavariate/utilities/costs.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=100_costs-dist=betavariate/utilities/costs.xlsx
@@ -563,79 +563,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2909.396172575696</v>
+        <v>4105.161497665613</v>
       </c>
       <c r="B2" t="n">
-        <v>1534.748111685032</v>
+        <v>14678.67357746413</v>
       </c>
       <c r="C2" t="n">
-        <v>3261.808541508783</v>
+        <v>7139.460625079153</v>
       </c>
       <c r="D2" t="n">
-        <v>5515.683295182364</v>
+        <v>4694.403764758794</v>
       </c>
       <c r="E2" t="n">
-        <v>1551.965594742113</v>
+        <v>8437.498203841396</v>
       </c>
       <c r="F2" t="n">
-        <v>8884.073068640429</v>
+        <v>6615.49599575614</v>
       </c>
       <c r="G2" t="n">
-        <v>7602.12931148514</v>
+        <v>2463.382729761356</v>
       </c>
       <c r="H2" t="n">
-        <v>10945.08326670784</v>
+        <v>8623.460674531258</v>
       </c>
       <c r="I2" t="n">
-        <v>13898.27234596867</v>
+        <v>968.5217108011221</v>
       </c>
       <c r="J2" t="n">
-        <v>7201.164573150688</v>
+        <v>5753.600672249127</v>
       </c>
       <c r="K2" t="n">
-        <v>2839.513646248864</v>
+        <v>5303.071788605001</v>
       </c>
       <c r="L2" t="n">
-        <v>12751.89788945973</v>
+        <v>3058.519464521103</v>
       </c>
       <c r="M2" t="n">
-        <v>1193.956660496384</v>
+        <v>4256.123240527052</v>
       </c>
       <c r="N2" t="n">
-        <v>7843.306307903186</v>
+        <v>1230.999162858376</v>
       </c>
       <c r="O2" t="n">
-        <v>6044.56799606804</v>
+        <v>6235.453282870753</v>
       </c>
       <c r="P2" t="n">
-        <v>9551.571742694734</v>
+        <v>4543.964745579236</v>
       </c>
       <c r="Q2" t="n">
-        <v>3437.920941718975</v>
+        <v>11350.96240568045</v>
       </c>
       <c r="R2" t="n">
-        <v>9091.961137244105</v>
+        <v>2489.245603670223</v>
       </c>
       <c r="S2" t="n">
-        <v>783.4755339941149</v>
+        <v>6877.120200514822</v>
       </c>
       <c r="T2" t="n">
-        <v>2424.061040841612</v>
+        <v>6869.348558253987</v>
       </c>
       <c r="U2" t="n">
-        <v>5745.436948097759</v>
+        <v>4531.240179942942</v>
       </c>
       <c r="V2" t="n">
-        <v>6720.787463217041</v>
+        <v>16264.58886438474</v>
       </c>
       <c r="W2" t="n">
-        <v>14092.89410697172</v>
+        <v>1974.887218864603</v>
       </c>
       <c r="X2" t="n">
-        <v>9696.24757306653</v>
+        <v>6673.118454527856</v>
       </c>
       <c r="Y2" t="n">
-        <v>5148.916669706158</v>
+        <v>3569.961020883038</v>
       </c>
     </row>
   </sheetData>
